--- a/msais/lr1/Лист Microsoft Excel.xlsx
+++ b/msais/lr1/Лист Microsoft Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_dod\source\repos\5Semestr\msais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_dod\repos\5Semestr\msais\lr1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5E207C-00AD-4AA9-A08D-F095EEC8DCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5686FE-C908-48D0-BC37-8232C205AF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -204,11 +195,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -491,18 +481,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -585,7 +575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -668,7 +658,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -775,7 +765,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -882,7 +872,7 @@
         <v>6.9444444444444448E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -911,7 +901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -948,7 +938,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="L10" t="s">
         <v>12</v>
       </c>
@@ -962,7 +952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1014,7 +1004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1023,7 +1013,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1032,7 +1022,7 @@
         <v>0.44545454545454544</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="Y15">
         <v>8</v>
       </c>
@@ -1058,7 +1048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="Y16">
         <f>POWER(Y15-0.5*1*9,2)</f>
         <v>12.25</v>
@@ -1092,19 +1082,19 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="Y17">
         <f>SUM(Y16:AF16)</f>
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="Y18">
         <f>Y17*12/((1*1)*(8^3-8))</f>
         <v>0.97619047619047616</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1164,7 +1154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1225,19 +1215,19 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="Y23">
         <f>SUM(Y22:AF22)</f>
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="Y24">
         <f>Y23*12/((1*1)*(8^3-8))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1293,7 +1283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1357,7 +1347,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1396,7 +1386,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1436,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1468,7 +1458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1500,7 +1490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1532,32 +1522,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
       <c r="B33">
         <v>11.1</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33">
         <v>5.5</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33">
         <v>1.9</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33">
         <v>1.8</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33">
         <v>0.9</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33">
         <v>0.4</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33">
         <v>0.3</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33">
         <v>0.2</v>
       </c>
       <c r="J33">
@@ -1565,7 +1555,7 @@
         <v>22.099999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
